--- a/대사 양식.xlsx
+++ b/대사 양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJungmin\Documents\GitHub\staccato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9699DD9B-EF11-4A67-A014-0A79D7E38C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251F7D48-167A-4B83-A17A-075ABDD01451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="2844" windowWidth="17280" windowHeight="8028" xr2:uid="{ECAAC364-4066-49FB-8A27-735CC7F34690}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>대사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,70 @@
   </si>
   <si>
     <t>대신 대사로 배경이름을 받는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 안 내보냄 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경때 대사로 받은 이름은 배경이 켜짐과 동시에 화면에 출력된다 .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화면에 출력된 대사는 대사용말풍선에 추가된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 장은 다른 exel 파일로 나뉜다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세이브 파일은 파일명과 플레이중인행을 저장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대사 로그 볼 수 있는 기능은 나중에 추가하도록 하자 . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경관련 /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">양식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pop에 관하여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 관련이다 .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 3가지 선택이 가능하다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지는 "\n"(줄바꿈)으로 갈린다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지를 선택한 후 가야하는 대사는 스텐딩에 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택지를 선택한 후 간 대사에서 공통 대사로 다시 돌아올때는 배경값을 이용하기로 하자 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CDEF49-29A1-4B81-8969-0106015454A0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -481,7 +545,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -489,19 +553,97 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
